--- a/pcb/IP2368_Board/ip2368_out_board.xlsx
+++ b/pcb/IP2368_Board/ip2368_out_board.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Comment</t>
   </si>
@@ -112,6 +112,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>TVS二极管</t>
     </r>
     <r>
@@ -164,6 +169,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
       <t>双</t>
     </r>
     <r>
@@ -283,6 +293,9 @@
     <t>USB_C</t>
   </si>
   <si>
+    <t>连接器</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -290,6 +303,43 @@
   </si>
   <si>
     <t>USB-C  立贴</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14PIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>立贴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>立创商品编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
+      <t>C2843970</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -961,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -978,6 +1028,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1305,41 +1356,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.2095238095238" customWidth="1"/>
     <col min="2" max="2" width="21.6761904761905" customWidth="1"/>
     <col min="3" max="6" width="20.2095238095238" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1359,7 +1411,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1379,7 +1431,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1399,7 +1451,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1419,7 +1471,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1439,7 +1491,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1459,7 +1511,7 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1479,7 +1531,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1499,7 +1551,7 @@
       </c>
     </row>
     <row r="10" ht="25.5" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1519,7 +1571,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1539,7 +1591,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1559,7 +1611,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1579,7 +1631,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1599,7 +1651,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1619,7 +1671,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1639,7 +1691,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1659,7 +1711,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1679,7 +1731,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1699,7 +1751,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1719,7 +1771,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1739,7 +1791,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1759,7 +1811,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1778,24 +1830,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/IP2368_Board/ip2368_out_board.xlsx
+++ b/pcb/IP2368_Board/ip2368_out_board.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
   <si>
     <t>Comment</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -51,7 +48,7 @@
     <t>1206C</t>
   </si>
   <si>
-    <t>CAP</t>
+    <t>C12891</t>
   </si>
   <si>
     <t>1uF/25V</t>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>SMD_2x5x8</t>
+  </si>
+  <si>
+    <t>直径5长度8,引脚间距2(mm)</t>
   </si>
   <si>
     <t>LED</t>
@@ -135,9 +135,6 @@
     <t>SOD-123</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY</t>
-  </si>
-  <si>
     <t>IP2368</t>
   </si>
   <si>
@@ -159,10 +156,20 @@
     <t>L1</t>
   </si>
   <si>
-    <t>SMD_12x12x6</t>
-  </si>
-  <si>
-    <t>电感</t>
+    <r>
+      <t>SMD_12x12x6(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+      </rPr>
+      <t>长宽高)</t>
+    </r>
+  </si>
+  <si>
+    <t>C526024</t>
   </si>
   <si>
     <t>RU30J30M</t>
@@ -200,6 +207,9 @@
     <t>PDFN5x6</t>
   </si>
   <si>
+    <t>C2803361</t>
+  </si>
+  <si>
     <t>KNY3403</t>
   </si>
   <si>
@@ -212,7 +222,7 @@
     <t>DFN5x6</t>
   </si>
   <si>
-    <t>CMS70N04H8-HF</t>
+    <t>C2839428</t>
   </si>
   <si>
     <t>2K</t>
@@ -227,9 +237,6 @@
     <t>0402R</t>
   </si>
   <si>
-    <t>RES</t>
-  </si>
-  <si>
     <t>100R</t>
   </si>
   <si>
@@ -302,10 +309,12 @@
     <t>USB-C 立贴</t>
   </si>
   <si>
-    <t>USB-C  立贴</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">14PIN </t>
     </r>
     <r>
@@ -352,7 +361,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -361,6 +370,12 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="微软雅黑"/>
       <charset val="0"/>
     </font>
     <font>
@@ -877,38 +892,35 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,98 +932,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1028,6 +1043,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1356,162 +1376,147 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.2095238095238" customWidth="1"/>
     <col min="2" max="2" width="21.6761904761905" customWidth="1"/>
-    <col min="3" max="6" width="20.2095238095238" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="3" max="5" width="20.2095238095238" customWidth="1"/>
+    <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+    </row>
+    <row r="2" ht="25.5" spans="1:6">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1523,15 +1528,12 @@
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1543,75 +1545,69 @@
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="1:5">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:6">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
+      <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1623,15 +1619,15 @@
       <c r="D13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1643,214 +1639,181 @@
       <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>59</v>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>61</v>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>63</v>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>65</v>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="E19" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>67</v>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="E22" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>75</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="11" t="s">
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/IP2368_Board/ip2368_out_board.xlsx
+++ b/pcb/IP2368_Board/ip2368_out_board.xlsx
@@ -66,7 +66,7 @@
     <t>10uF/50V</t>
   </si>
   <si>
-    <t>C3</t>
+    <t>C3,C21</t>
   </si>
   <si>
     <t>0805C</t>
@@ -306,6 +306,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">14PIN </t>
     </r>
     <r>
@@ -1359,7 +1364,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1447,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
